--- a/tpreseau1/simulation_efficacite.xlsx
+++ b/tpreseau1/simulation_efficacite.xlsx
@@ -49,9 +49,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -117,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,7 +137,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.15005453333877306"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.78545496579766871"/>
+          <c:w val="0.78545496579766838"/>
           <c:h val="0.78405450974257351"/>
         </c:manualLayout>
       </c:layout>
@@ -159,11 +156,31 @@
           </c:spPr>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9084628670120898E-2"/>
+                  <c:y val="7.0640176600441501E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8359240069084632E-2"/>
+                  <c:y val="5.7395143487858721E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7633851468048424E-2"/>
-                  <c:y val="5.2980132450331126E-2"/>
+                  <c:x val="-6.2176709776562901E-2"/>
+                  <c:y val="6.1809806886721934E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -172,8 +189,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11398963730569948"/>
-                  <c:y val="5.7395143487858721E-2"/>
+                  <c:x val="-0.12780656303972365"/>
+                  <c:y val="4.4150110375275942E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -182,8 +199,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4179620034542316E-2"/>
-                  <c:y val="4.856512141280353E-2"/>
+                  <c:x val="-4.4905008635578586E-2"/>
+                  <c:y val="4.4150110375275942E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -192,7 +209,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.2538860103626937E-2"/>
+                  <c:x val="-8.6355785837651119E-2"/>
                   <c:y val="6.6225165562913912E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -202,8 +219,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7633851468048358E-2"/>
-                  <c:y val="8.3885209713024281E-2"/>
+                  <c:x val="-4.8359240069084632E-2"/>
+                  <c:y val="7.505518763796909E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -212,8 +229,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4542314335060447E-3"/>
-                  <c:y val="4.4150110375275942E-2"/>
+                  <c:x val="-3.4542314335060452E-3"/>
+                  <c:y val="4.4150110375275935E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -257,41 +274,41 @@
             <c:numRef>
               <c:f>Sheet1!$L$3:$L$10</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.78740157480314954</c:v>
+                  <c:v>0.94876660341555974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88105726872246692</c:v>
+                  <c:v>0.97370983446932824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97370983446932824</c:v>
+                  <c:v>0.99462900338173854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99730727037000111</c:v>
+                  <c:v>0.99946029144262105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99816911914287665</c:v>
+                  <c:v>0.99963328670188922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99817035982923363</c:v>
+                  <c:v>0.99963353556740897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99903664323687869</c:v>
+                  <c:v>0.99980718004384872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99910080927165557</c:v>
+                  <c:v>0.99982003239416894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="121423360"/>
-        <c:axId val="121909248"/>
+        <c:axId val="102615296"/>
+        <c:axId val="102642048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121423360"/>
+        <c:axId val="102615296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -322,15 +339,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121909248"/>
+        <c:crossAx val="102642048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121909248"/>
+        <c:axId val="102642048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -351,9 +369,9 @@
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121423360"/>
+        <c:crossAx val="102615296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -374,9 +392,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.57035290277834438"/>
-          <c:y val="0.3652114512176044"/>
-          <c:w val="0.3247823426216801"/>
-          <c:h val="7.9836262189080687E-2"/>
+          <c:y val="0.36521145121760445"/>
+          <c:w val="0.32478234262168015"/>
+          <c:h val="7.9836262189080701E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -390,7 +408,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -759,7 +777,7 @@
   <dimension ref="D2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -818,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <f>2*10^8</f>
@@ -826,15 +844,15 @@
       </c>
       <c r="J3">
         <f>H3/I3</f>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K3">
         <f>J3*1000000</f>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L3" s="3">
         <f>1/(1+(5.4*K3/G3))</f>
-        <v>0.78740157480314954</v>
+        <v>0.94876660341555974</v>
       </c>
     </row>
     <row r="4" spans="4:12" ht="15" thickBot="1">
@@ -853,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I10" si="2">2*10^8</f>
@@ -861,15 +879,15 @@
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J10" si="3">H4/I4</f>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K10" si="4">J4*1000000</f>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:L10" si="5">1/(1+(5.4*K4/G4))</f>
-        <v>0.88105726872246692</v>
+        <v>0.97370983446932824</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="15" thickBot="1">
@@ -888,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
@@ -896,15 +914,15 @@
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="5"/>
-        <v>0.97370983446932824</v>
+        <v>0.99462900338173854</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="15" thickBot="1">
@@ -923,7 +941,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
@@ -931,15 +949,15 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="5"/>
-        <v>0.99730727037000111</v>
+        <v>0.99946029144262105</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="15" thickBot="1">
@@ -958,7 +976,7 @@
         <v>147.19999999999999</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
@@ -966,15 +984,15 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="5"/>
-        <v>0.99816911914287665</v>
+        <v>0.99963328670188922</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="15" thickBot="1">
@@ -993,7 +1011,7 @@
         <v>147.30000000000001</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
@@ -1001,15 +1019,15 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="5"/>
-        <v>0.99817035982923363</v>
+        <v>0.99963353556740897</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="15" thickBot="1">
@@ -1028,7 +1046,7 @@
         <v>280</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
@@ -1036,15 +1054,15 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="5"/>
-        <v>0.99903664323687869</v>
+        <v>0.99980718004384872</v>
       </c>
     </row>
     <row r="10" spans="4:12" ht="15" thickBot="1">
@@ -1063,7 +1081,7 @@
         <v>300</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
@@ -1071,15 +1089,15 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>4.9999999999999998E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>4.9999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="5"/>
-        <v>0.99910080927165557</v>
+        <v>0.99982003239416894</v>
       </c>
     </row>
   </sheetData>

--- a/tpreseau1/simulation_efficacite.xlsx
+++ b/tpreseau1/simulation_efficacite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>efficacité</t>
   </si>
@@ -43,16 +43,63 @@
   </si>
   <si>
     <t>vitesse dans les cables (m/s)</t>
+  </si>
+  <si>
+    <t>calcoli</t>
+  </si>
+  <si>
+    <t>Taller-retour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller </t>
+  </si>
+  <si>
+    <t>Temis</t>
+  </si>
+  <si>
+    <t>Tprop</t>
+  </si>
+  <si>
+    <t>Tlatence</t>
+  </si>
+  <si>
+    <t>temis (mimmi s)</t>
+  </si>
+  <si>
+    <t>tprop (milli s)</t>
+  </si>
+  <si>
+    <t>Tlatence/Ttot (%)</t>
+  </si>
+  <si>
+    <t>Temis bis</t>
+  </si>
+  <si>
+    <t>Tlatence bis</t>
+  </si>
+  <si>
+    <t>Tlatence/Ttot (%) bis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,11 +149,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -115,6 +190,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +221,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.15005453333877306"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.78545496579766838"/>
+          <c:w val="0.78545496579766816"/>
           <c:h val="0.78405450974257351"/>
         </c:manualLayout>
       </c:layout>
@@ -159,7 +243,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.9084628670120898E-2"/>
+                  <c:x val="-6.9084628670120912E-2"/>
                   <c:y val="7.0640176600441501E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -169,8 +253,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8359240069084632E-2"/>
-                  <c:y val="5.7395143487858721E-2"/>
+                  <c:x val="-4.8359240069084625E-2"/>
+                  <c:y val="5.7395143487858714E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -179,8 +263,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2176709776562901E-2"/>
-                  <c:y val="6.1809806886721934E-2"/>
+                  <c:x val="-6.2176709776562894E-2"/>
+                  <c:y val="6.1809806886721927E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -190,7 +274,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.12780656303972365"/>
-                  <c:y val="4.4150110375275942E-2"/>
+                  <c:y val="4.4150110375275935E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -200,7 +284,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-4.4905008635578586E-2"/>
-                  <c:y val="4.4150110375275942E-2"/>
+                  <c:y val="4.4150110375275935E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -209,8 +293,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.6355785837651119E-2"/>
-                  <c:y val="6.6225165562913912E-2"/>
+                  <c:x val="-8.6355785837651147E-2"/>
+                  <c:y val="6.6225165562913885E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -219,7 +303,7 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8359240069084632E-2"/>
+                  <c:x val="-4.8359240069084625E-2"/>
                   <c:y val="7.505518763796909E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -230,7 +314,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-3.4542314335060452E-3"/>
-                  <c:y val="4.4150110375275935E-2"/>
+                  <c:y val="4.4150110375275928E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -272,7 +356,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$10</c:f>
+              <c:f>Sheet1!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -295,20 +379,20 @@
                   <c:v>0.99963353556740897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99980718004384872</c:v>
+                  <c:v>0.99990358072614416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99982003239416894</c:v>
+                  <c:v>0.99991000809927111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="102615296"/>
-        <c:axId val="102642048"/>
+        <c:axId val="112052480"/>
+        <c:axId val="112087424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102615296"/>
+        <c:axId val="112052480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -339,12 +423,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102642048"/>
+        <c:crossAx val="112087424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102642048"/>
+        <c:axId val="112087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -371,7 +455,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102615296"/>
+        <c:crossAx val="112052480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -392,9 +476,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.57035290277834438"/>
-          <c:y val="0.36521145121760445"/>
-          <c:w val="0.32478234262168015"/>
-          <c:h val="7.9836262189080701E-2"/>
+          <c:y val="0.36521145121760451"/>
+          <c:w val="0.32478234262168021"/>
+          <c:h val="7.9836262189080714E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -408,7 +492,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -418,14 +502,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>850900</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -464,7 +548,7 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -774,24 +858,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:L10"/>
+  <dimension ref="D2:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="19.36328125" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" customWidth="1"/>
+    <col min="6" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" customWidth="1"/>
+    <col min="10" max="10" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="15" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" ht="15" thickBot="1">
+    <row r="2" spans="4:22" ht="15" thickBot="1">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -805,22 +890,28 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:12" ht="15" thickBot="1">
+    <row r="3" spans="4:22" ht="15" thickBot="1">
       <c r="D3" s="1">
         <v>10</v>
       </c>
@@ -836,26 +927,34 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <f>F3*1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <f>2*10^8</f>
         <v>200000000</v>
       </c>
-      <c r="J3">
-        <f>H3/I3</f>
+      <c r="K3">
+        <f>I3/J3</f>
         <v>1E-8</v>
       </c>
-      <c r="K3">
-        <f>J3*1000000</f>
-        <v>0.01</v>
-      </c>
-      <c r="L3" s="3">
-        <f>1/(1+(5.4*K3/G3))</f>
+      <c r="L3">
+        <f>K3*1000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M3">
+        <f>K3*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N3" s="3">
+        <f>1/(1+(5.4*M3/G3))</f>
         <v>0.94876660341555974</v>
       </c>
     </row>
-    <row r="4" spans="4:12" ht="15" thickBot="1">
+    <row r="4" spans="4:22" ht="15" thickBot="1">
       <c r="D4" s="2">
         <v>20</v>
       </c>
@@ -863,7 +962,7 @@
         <v>10000000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F10" si="0">D4/E4</f>
+        <f t="shared" ref="F4:F8" si="0">D4/E4</f>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="G4">
@@ -871,26 +970,34 @@
         <v>2</v>
       </c>
       <c r="H4">
+        <f t="shared" ref="H4:H10" si="2">F4*1000</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I10" si="2">2*10^8</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="3">2*10^8</f>
         <v>200000000</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J10" si="3">H4/I4</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="4">I4/J4</f>
         <v>1E-8</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K10" si="4">J4*1000000</f>
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L10" si="5">1/(1+(5.4*K4/G4))</f>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="5">K4*1000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M4">
+        <f>K4*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N4" s="3">
+        <f>1/(1+(5.4*M4/G4))</f>
         <v>0.97370983446932824</v>
       </c>
     </row>
-    <row r="5" spans="4:12" ht="15" thickBot="1">
+    <row r="5" spans="4:22" ht="15" thickBot="1">
       <c r="D5" s="2">
         <v>100</v>
       </c>
@@ -906,26 +1013,52 @@
         <v>10</v>
       </c>
       <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="I5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>200000000</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>1E-8</v>
+        <v>200000000</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="L5" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M5">
+        <f>K5*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="3">
+        <f>1/(1+(5.4*M5/G5))</f>
         <v>0.99462900338173854</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" ht="15" thickBot="1">
+      <c r="Q5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.1472</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.14730000000000001</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:22" ht="15" thickBot="1">
       <c r="D6" s="2">
         <v>1000</v>
       </c>
@@ -941,26 +1074,52 @@
         <v>100</v>
       </c>
       <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I6">
         <v>2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>200000000</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>1E-8</v>
+        <v>200000000</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="L6" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M6">
+        <f>K6*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N6" s="3">
+        <f>1/(1+(5.4*M6/G6))</f>
         <v>0.99946029144262105</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" ht="15" thickBot="1">
+      <c r="Q6">
+        <v>0.01</v>
+      </c>
+      <c r="R6">
+        <v>0.01</v>
+      </c>
+      <c r="S6">
+        <v>0.01</v>
+      </c>
+      <c r="T6">
+        <v>0.01</v>
+      </c>
+      <c r="U6">
+        <v>0.01</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="4:22" ht="15" thickBot="1">
       <c r="D7" s="2">
         <v>1472</v>
       </c>
@@ -976,26 +1135,34 @@
         <v>147.19999999999999</v>
       </c>
       <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.1472</v>
+      </c>
+      <c r="I7">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>200000000</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>1E-8</v>
+        <v>200000000</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="L7" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M7">
+        <f>K7*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="3">
+        <f>1/(1+(5.4*M7/G7))</f>
         <v>0.99963328670188922</v>
       </c>
     </row>
-    <row r="8" spans="4:12" ht="15" thickBot="1">
+    <row r="8" spans="4:22" ht="15" thickBot="1">
       <c r="D8" s="2">
         <v>1473</v>
       </c>
@@ -1011,26 +1178,34 @@
         <v>147.30000000000001</v>
       </c>
       <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.14730000000000001</v>
+      </c>
+      <c r="I8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>200000000</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>1E-8</v>
+        <v>200000000</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="L8" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="5"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M8">
+        <f>K8*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="3">
+        <f>1/(1+(5.4*M8/G8))</f>
         <v>0.99963353556740897</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="15" thickBot="1">
+    <row r="9" spans="4:22" ht="15" thickBot="1">
       <c r="D9" s="2">
         <v>2800</v>
       </c>
@@ -1038,34 +1213,42 @@
         <v>10000000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>2.7999999999999998E-4</v>
+        <f>2*D9/E9</f>
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="I9">
         <v>2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>200000000</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1E-8</v>
+        <v>200000000</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="L9" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="5"/>
-        <v>0.99980718004384872</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" ht="15" thickBot="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M9">
+        <f>K9*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="3">
+        <f>1/(1+(5.4*M9/G9))</f>
+        <v>0.99990358072614416</v>
+      </c>
+    </row>
+    <row r="10" spans="4:22" ht="15" thickBot="1">
       <c r="D10" s="2">
         <v>3000</v>
       </c>
@@ -1073,31 +1256,402 @@
         <v>10000000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>2.9999999999999997E-4</v>
+        <f>2*D10/E10</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>200000000</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>1E-8</v>
+        <v>200000000</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>0.01</v>
-      </c>
-      <c r="L10" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="5"/>
-        <v>0.99982003239416894</v>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M10">
+        <f>K10*1000000</f>
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="3">
+        <f>1/(1+(5.4*M10/G10))</f>
+        <v>0.99991000809927111</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23">
+        <v>10000</v>
+      </c>
+      <c r="K23">
+        <v>46</v>
+      </c>
+      <c r="L23">
+        <v>46</v>
+      </c>
+      <c r="M23">
+        <v>46</v>
+      </c>
+      <c r="N23">
+        <v>46</v>
+      </c>
+      <c r="O23">
+        <v>46</v>
+      </c>
+      <c r="P23">
+        <v>46</v>
+      </c>
+      <c r="Q23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <v>1000</v>
+      </c>
+      <c r="N24">
+        <v>1472</v>
+      </c>
+      <c r="O24">
+        <v>1473</v>
+      </c>
+      <c r="P24">
+        <v>2800</v>
+      </c>
+      <c r="Q24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="3">
+        <f>10/64</f>
+        <v>0.15625</v>
+      </c>
+      <c r="K25" s="3">
+        <f>(K24)/(K24+K23)</f>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25:Q25" si="6">(L24)/(L24+L23)</f>
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="M25" s="3">
+        <f>(M24)/(M24+M23)</f>
+        <v>0.95602294455066916</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.96971691902567481</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98383696416022492</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="6"/>
+        <v>0.98489822718319109</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="5">
+        <f>$J$23*J25</f>
+        <v>1562.5</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" ref="K26:Q26" si="7">$J$23*K25</f>
+        <v>3030.3030303030305</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="7"/>
+        <v>6849.3150684931506</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="7"/>
+        <v>9560.2294455066913</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="7"/>
+        <v>9696.9696969696979</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="7"/>
+        <v>9697.1691902567472</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="7"/>
+        <v>9838.3696416022485</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="7"/>
+        <v>9848.9822718319101</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17" ht="15" thickBot="1"/>
+    <row r="33" spans="9:15" ht="15" thickBot="1">
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2.895</v>
+      </c>
+      <c r="N33" s="7">
+        <v>5.0140000000000002</v>
+      </c>
+      <c r="O33" s="7">
+        <v>5.4189999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15">
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="4">
+        <f>J33/2</f>
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" ref="K34:O34" si="8">K33/2</f>
+        <v>1.0285</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3825000000000001</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="8"/>
+        <v>1.4475</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="8"/>
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="O34" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7094999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15">
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.1472</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.14730000000000001</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15">
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.1472</v>
+      </c>
+      <c r="M36" s="4">
+        <f>M35*2</f>
+        <v>0.29460000000000003</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" ref="N36:O36" si="9">N35*2</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="O36" s="4">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15">
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K37">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L37">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M37">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N37">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="O37">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15">
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="4">
+        <f>J34-J35-J37</f>
+        <v>0.27648999999999996</v>
+      </c>
+      <c r="K38" s="4">
+        <f>K34-K35-K37</f>
+        <v>0.92849000000000004</v>
+      </c>
+      <c r="L38" s="4">
+        <f>L34-L35-L37</f>
+        <v>1.23529</v>
+      </c>
+      <c r="M38" s="4">
+        <f>M34-M35-M37</f>
+        <v>1.30019</v>
+      </c>
+      <c r="N38" s="4">
+        <f>N34-N35-N37</f>
+        <v>2.2269900000000002</v>
+      </c>
+      <c r="O38" s="4">
+        <f>O34-O35-O37</f>
+        <v>2.4094899999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15">
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="4">
+        <f>J34-J36-J37</f>
+        <v>0.27648999999999996</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" ref="K39:O39" si="10">K34-K36-K37</f>
+        <v>0.92849000000000004</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="10"/>
+        <v>1.23529</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="10"/>
+        <v>1.15289</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="10"/>
+        <v>1.94699</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" si="10"/>
+        <v>2.1094899999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15">
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="8">
+        <f>J38/J34</f>
+        <v>0.96506108202443275</v>
+      </c>
+      <c r="K40" s="8">
+        <f>K38/K34</f>
+        <v>0.90276130286825484</v>
+      </c>
+      <c r="L40" s="8">
+        <f>L38/L34</f>
+        <v>0.89351898734177215</v>
+      </c>
+      <c r="M40" s="8">
+        <f>M38/M34</f>
+        <v>0.89823143350604484</v>
+      </c>
+      <c r="N40" s="8">
+        <f>N38/N34</f>
+        <v>0.88830873554048673</v>
+      </c>
+      <c r="O40" s="8">
+        <f>O38/O34</f>
+        <v>0.88927477394353205</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15">
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="8">
+        <f>J39/J34</f>
+        <v>0.96506108202443275</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" ref="K41:O41" si="11">K39/K34</f>
+        <v>0.90276130286825484</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="11"/>
+        <v>0.89351898734177215</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="11"/>
+        <v>0.79646977547495679</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="11"/>
+        <v>0.77662145991224563</v>
+      </c>
+      <c r="O41" s="8">
+        <f t="shared" si="11"/>
+        <v>0.77855323860490855</v>
       </c>
     </row>
   </sheetData>
